--- a/MxMasterTest/Dropdowns.xlsx
+++ b/MxMasterTest/Dropdowns.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="1000" windowWidth="15000" windowHeight="10000" activeTab="2"/>
+    <workbookView xWindow="1000" yWindow="1000" windowWidth="15000" windowHeight="10000" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Level 1 Top Nav" sheetId="1" r:id="rId1"/>
@@ -597,7 +597,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="$A$1" sqref="$A$1:$A$1"/>
+      <selection activeCell="$A$1" sqref="$A$1:$A$10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -668,12 +668,12 @@
   <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="$A$5" sqref="$A$5:$A$5"/>
+      <selection activeCell="$A$1" sqref="$A$1:$A$36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.27734375" customWidth="1"/>
+    <col min="1" max="1" width="35.84765625" customWidth="1"/>
     <col min="2" max="16384" width="9.140625"/>
   </cols>
   <sheetData>
@@ -867,8 +867,8 @@
   </sheetPr>
   <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="$A$18" sqref="$A$18:$A$18"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection activeCell="$A$1" sqref="$A$1:$A$28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="$E$4" sqref="$E$4:$E$4"/>
+      <selection activeCell="$A$1" sqref="$A$1:$A$4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1072,8 +1072,8 @@
   </sheetPr>
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="$B$2" sqref="$B$2:$B$2"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection activeCell="$A$1" sqref="$A$1:$A$32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1252,8 +1252,8 @@
   </sheetPr>
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="$A$24" sqref="$A$24:$A$24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection activeCell="$A$1" sqref="$A$1:$A$33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
